--- a/LedAddress.xlsx
+++ b/LedAddress.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32640" windowHeight="20540"/>
+    <workbookView xWindow="2000" yWindow="1800" windowWidth="34520" windowHeight="21580"/>
   </bookViews>
   <sheets>
     <sheet name="DesignLight" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="35">
   <si>
     <t>//</t>
     <phoneticPr fontId="1"/>
@@ -158,6 +158,10 @@
   </si>
   <si>
     <t>radius</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>space y1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -523,7 +527,7 @@
   <dimension ref="A2:AA50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD51"/>
+      <selection activeCell="A2" sqref="A2:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -625,7 +629,7 @@
       </c>
       <c r="R4">
         <f>param!C3</f>
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="S4" t="s">
         <v>2</v>
@@ -637,8 +641,8 @@
         <v>26</v>
       </c>
       <c r="V4">
-        <f>param!$C$7</f>
-        <v>8</v>
+        <f>param!$C$8</f>
+        <v>7</v>
       </c>
       <c r="W4" t="s">
         <v>7</v>
@@ -698,15 +702,15 @@
         <v>25</v>
       </c>
       <c r="P5">
-        <f>P4-param!$C$4</f>
-        <v>1190</v>
+        <f>P4</f>
+        <v>1200</v>
       </c>
       <c r="Q5" t="s">
         <v>2</v>
       </c>
       <c r="R5">
-        <f>DesignLight!R4</f>
-        <v>350</v>
+        <f>R4-param!$C$6</f>
+        <v>340</v>
       </c>
       <c r="S5" t="s">
         <v>2</v>
@@ -718,8 +722,8 @@
         <v>26</v>
       </c>
       <c r="V5">
-        <f>param!$C$7</f>
-        <v>8</v>
+        <f>param!$C$8</f>
+        <v>7</v>
       </c>
       <c r="W5" t="s">
         <v>7</v>
@@ -786,8 +790,8 @@
         <v>2</v>
       </c>
       <c r="R6">
-        <f>DesignLight!R5</f>
-        <v>350</v>
+        <f>R4</f>
+        <v>360</v>
       </c>
       <c r="S6" t="s">
         <v>2</v>
@@ -799,8 +803,8 @@
         <v>26</v>
       </c>
       <c r="V6">
-        <f>param!$C$7</f>
-        <v>8</v>
+        <f>param!$C$8</f>
+        <v>7</v>
       </c>
       <c r="W6" t="s">
         <v>7</v>
@@ -860,15 +864,15 @@
         <v>25</v>
       </c>
       <c r="P7">
-        <f>P6-param!$C$4</f>
-        <v>1125</v>
+        <f>P6</f>
+        <v>1135</v>
       </c>
       <c r="Q7" t="s">
         <v>2</v>
       </c>
       <c r="R7">
-        <f>DesignLight!R6</f>
-        <v>350</v>
+        <f>R5</f>
+        <v>340</v>
       </c>
       <c r="S7" t="s">
         <v>2</v>
@@ -880,8 +884,8 @@
         <v>26</v>
       </c>
       <c r="V7">
-        <f>param!$C$7</f>
-        <v>8</v>
+        <f>param!$C$8</f>
+        <v>7</v>
       </c>
       <c r="W7" t="s">
         <v>7</v>
@@ -948,8 +952,8 @@
         <v>2</v>
       </c>
       <c r="R8">
-        <f>DesignLight!R7</f>
-        <v>350</v>
+        <f t="shared" ref="R8:R27" si="1">R6</f>
+        <v>360</v>
       </c>
       <c r="S8" t="s">
         <v>2</v>
@@ -961,8 +965,8 @@
         <v>26</v>
       </c>
       <c r="V8">
-        <f>param!$C$7</f>
-        <v>8</v>
+        <f>param!$C$8</f>
+        <v>7</v>
       </c>
       <c r="W8" t="s">
         <v>7</v>
@@ -1022,15 +1026,15 @@
         <v>25</v>
       </c>
       <c r="P9">
-        <f>P8-param!$C$4</f>
-        <v>1060</v>
+        <f>P8</f>
+        <v>1070</v>
       </c>
       <c r="Q9" t="s">
         <v>2</v>
       </c>
       <c r="R9">
-        <f>DesignLight!R8</f>
-        <v>350</v>
+        <f t="shared" si="1"/>
+        <v>340</v>
       </c>
       <c r="S9" t="s">
         <v>2</v>
@@ -1042,8 +1046,8 @@
         <v>26</v>
       </c>
       <c r="V9">
-        <f>param!$C$7</f>
-        <v>8</v>
+        <f>param!$C$8</f>
+        <v>7</v>
       </c>
       <c r="W9" t="s">
         <v>7</v>
@@ -1110,8 +1114,8 @@
         <v>2</v>
       </c>
       <c r="R10">
-        <f>DesignLight!R9</f>
-        <v>350</v>
+        <f t="shared" si="1"/>
+        <v>360</v>
       </c>
       <c r="S10" t="s">
         <v>2</v>
@@ -1123,8 +1127,8 @@
         <v>26</v>
       </c>
       <c r="V10">
-        <f>param!$C$7</f>
-        <v>8</v>
+        <f>param!$C$8</f>
+        <v>7</v>
       </c>
       <c r="W10" t="s">
         <v>7</v>
@@ -1184,15 +1188,15 @@
         <v>25</v>
       </c>
       <c r="P11">
-        <f>P10-param!$C$4</f>
-        <v>995</v>
+        <f t="shared" ref="P11:P27" si="2">P10</f>
+        <v>1005</v>
       </c>
       <c r="Q11" t="s">
         <v>2</v>
       </c>
       <c r="R11">
-        <f>DesignLight!R10</f>
-        <v>350</v>
+        <f t="shared" si="1"/>
+        <v>340</v>
       </c>
       <c r="S11" t="s">
         <v>2</v>
@@ -1204,8 +1208,8 @@
         <v>26</v>
       </c>
       <c r="V11">
-        <f>param!$C$7</f>
-        <v>8</v>
+        <f>param!$C$8</f>
+        <v>7</v>
       </c>
       <c r="W11" t="s">
         <v>7</v>
@@ -1272,8 +1276,8 @@
         <v>2</v>
       </c>
       <c r="R12">
-        <f>DesignLight!R11</f>
-        <v>350</v>
+        <f t="shared" si="1"/>
+        <v>360</v>
       </c>
       <c r="S12" t="s">
         <v>2</v>
@@ -1285,8 +1289,8 @@
         <v>26</v>
       </c>
       <c r="V12">
-        <f>param!$C$7</f>
-        <v>8</v>
+        <f>param!$C$8</f>
+        <v>7</v>
       </c>
       <c r="W12" t="s">
         <v>7</v>
@@ -1346,15 +1350,15 @@
         <v>25</v>
       </c>
       <c r="P13">
-        <f>P12-param!$C$4</f>
-        <v>930</v>
+        <f t="shared" ref="P13:P27" si="3">P12</f>
+        <v>940</v>
       </c>
       <c r="Q13" t="s">
         <v>2</v>
       </c>
       <c r="R13">
-        <f>DesignLight!R12</f>
-        <v>350</v>
+        <f t="shared" si="1"/>
+        <v>340</v>
       </c>
       <c r="S13" t="s">
         <v>2</v>
@@ -1366,8 +1370,8 @@
         <v>26</v>
       </c>
       <c r="V13">
-        <f>param!$C$7</f>
-        <v>8</v>
+        <f>param!$C$8</f>
+        <v>7</v>
       </c>
       <c r="W13" t="s">
         <v>7</v>
@@ -1434,8 +1438,8 @@
         <v>2</v>
       </c>
       <c r="R14">
-        <f>DesignLight!R13</f>
-        <v>350</v>
+        <f t="shared" si="1"/>
+        <v>360</v>
       </c>
       <c r="S14" t="s">
         <v>2</v>
@@ -1447,8 +1451,8 @@
         <v>26</v>
       </c>
       <c r="V14">
-        <f>param!$C$7</f>
-        <v>8</v>
+        <f>param!$C$8</f>
+        <v>7</v>
       </c>
       <c r="W14" t="s">
         <v>7</v>
@@ -1508,15 +1512,15 @@
         <v>25</v>
       </c>
       <c r="P15">
-        <f>P14-param!$C$4</f>
-        <v>865</v>
+        <f t="shared" ref="P15:P27" si="4">P14</f>
+        <v>875</v>
       </c>
       <c r="Q15" t="s">
         <v>2</v>
       </c>
       <c r="R15">
-        <f>DesignLight!R14</f>
-        <v>350</v>
+        <f t="shared" si="1"/>
+        <v>340</v>
       </c>
       <c r="S15" t="s">
         <v>2</v>
@@ -1528,8 +1532,8 @@
         <v>26</v>
       </c>
       <c r="V15">
-        <f>param!$C$7</f>
-        <v>8</v>
+        <f>param!$C$8</f>
+        <v>7</v>
       </c>
       <c r="W15" t="s">
         <v>7</v>
@@ -1596,8 +1600,8 @@
         <v>2</v>
       </c>
       <c r="R16">
-        <f>DesignLight!R15</f>
-        <v>350</v>
+        <f t="shared" si="1"/>
+        <v>360</v>
       </c>
       <c r="S16" t="s">
         <v>2</v>
@@ -1609,8 +1613,8 @@
         <v>26</v>
       </c>
       <c r="V16">
-        <f>param!$C$7</f>
-        <v>8</v>
+        <f>param!$C$8</f>
+        <v>7</v>
       </c>
       <c r="W16" t="s">
         <v>7</v>
@@ -1670,15 +1674,15 @@
         <v>25</v>
       </c>
       <c r="P17">
-        <f>P16-param!$C$4</f>
-        <v>800</v>
+        <f t="shared" ref="P17:P27" si="5">P16</f>
+        <v>810</v>
       </c>
       <c r="Q17" t="s">
         <v>2</v>
       </c>
       <c r="R17">
-        <f>DesignLight!R16</f>
-        <v>350</v>
+        <f t="shared" si="1"/>
+        <v>340</v>
       </c>
       <c r="S17" t="s">
         <v>2</v>
@@ -1690,8 +1694,8 @@
         <v>26</v>
       </c>
       <c r="V17">
-        <f>param!$C$7</f>
-        <v>8</v>
+        <f>param!$C$8</f>
+        <v>7</v>
       </c>
       <c r="W17" t="s">
         <v>7</v>
@@ -1758,8 +1762,8 @@
         <v>2</v>
       </c>
       <c r="R18">
-        <f>DesignLight!R17</f>
-        <v>350</v>
+        <f t="shared" si="1"/>
+        <v>360</v>
       </c>
       <c r="S18" t="s">
         <v>2</v>
@@ -1771,8 +1775,8 @@
         <v>26</v>
       </c>
       <c r="V18">
-        <f>param!$C$7</f>
-        <v>8</v>
+        <f>param!$C$8</f>
+        <v>7</v>
       </c>
       <c r="W18" t="s">
         <v>7</v>
@@ -1832,15 +1836,15 @@
         <v>25</v>
       </c>
       <c r="P19">
-        <f>P18-param!$C$4</f>
-        <v>735</v>
+        <f t="shared" ref="P19:P27" si="6">P18</f>
+        <v>745</v>
       </c>
       <c r="Q19" t="s">
         <v>2</v>
       </c>
       <c r="R19">
-        <f>DesignLight!R18</f>
-        <v>350</v>
+        <f t="shared" si="1"/>
+        <v>340</v>
       </c>
       <c r="S19" t="s">
         <v>2</v>
@@ -1852,8 +1856,8 @@
         <v>26</v>
       </c>
       <c r="V19">
-        <f>param!$C$7</f>
-        <v>8</v>
+        <f>param!$C$8</f>
+        <v>7</v>
       </c>
       <c r="W19" t="s">
         <v>7</v>
@@ -1920,8 +1924,8 @@
         <v>2</v>
       </c>
       <c r="R20">
-        <f>DesignLight!R19</f>
-        <v>350</v>
+        <f t="shared" si="1"/>
+        <v>360</v>
       </c>
       <c r="S20" t="s">
         <v>2</v>
@@ -1933,8 +1937,8 @@
         <v>26</v>
       </c>
       <c r="V20">
-        <f>param!$C$7</f>
-        <v>8</v>
+        <f>param!$C$8</f>
+        <v>7</v>
       </c>
       <c r="W20" t="s">
         <v>7</v>
@@ -1994,15 +1998,15 @@
         <v>25</v>
       </c>
       <c r="P21">
-        <f>P20-param!$C$4</f>
-        <v>670</v>
+        <f t="shared" ref="P21:P27" si="7">P20</f>
+        <v>680</v>
       </c>
       <c r="Q21" t="s">
         <v>2</v>
       </c>
       <c r="R21">
-        <f>DesignLight!R20</f>
-        <v>350</v>
+        <f t="shared" si="1"/>
+        <v>340</v>
       </c>
       <c r="S21" t="s">
         <v>2</v>
@@ -2014,8 +2018,8 @@
         <v>26</v>
       </c>
       <c r="V21">
-        <f>param!$C$7</f>
-        <v>8</v>
+        <f>param!$C$8</f>
+        <v>7</v>
       </c>
       <c r="W21" t="s">
         <v>7</v>
@@ -2082,8 +2086,8 @@
         <v>2</v>
       </c>
       <c r="R22">
-        <f>DesignLight!R21</f>
-        <v>350</v>
+        <f t="shared" si="1"/>
+        <v>360</v>
       </c>
       <c r="S22" t="s">
         <v>2</v>
@@ -2095,8 +2099,8 @@
         <v>26</v>
       </c>
       <c r="V22">
-        <f>param!$C$7</f>
-        <v>8</v>
+        <f>param!$C$8</f>
+        <v>7</v>
       </c>
       <c r="W22" t="s">
         <v>7</v>
@@ -2156,15 +2160,15 @@
         <v>25</v>
       </c>
       <c r="P23">
-        <f>P22-param!$C$4</f>
-        <v>605</v>
+        <f t="shared" ref="P23:P27" si="8">P22</f>
+        <v>615</v>
       </c>
       <c r="Q23" t="s">
         <v>2</v>
       </c>
       <c r="R23">
-        <f>DesignLight!R22</f>
-        <v>350</v>
+        <f t="shared" si="1"/>
+        <v>340</v>
       </c>
       <c r="S23" t="s">
         <v>2</v>
@@ -2176,8 +2180,8 @@
         <v>26</v>
       </c>
       <c r="V23">
-        <f>param!$C$7</f>
-        <v>8</v>
+        <f>param!$C$8</f>
+        <v>7</v>
       </c>
       <c r="W23" t="s">
         <v>7</v>
@@ -2244,8 +2248,8 @@
         <v>2</v>
       </c>
       <c r="R24">
-        <f>DesignLight!R23</f>
-        <v>350</v>
+        <f t="shared" si="1"/>
+        <v>360</v>
       </c>
       <c r="S24" t="s">
         <v>2</v>
@@ -2257,8 +2261,8 @@
         <v>26</v>
       </c>
       <c r="V24">
-        <f>param!$C$7</f>
-        <v>8</v>
+        <f>param!$C$8</f>
+        <v>7</v>
       </c>
       <c r="W24" t="s">
         <v>7</v>
@@ -2318,15 +2322,15 @@
         <v>25</v>
       </c>
       <c r="P25">
-        <f>P24-param!$C$4</f>
-        <v>540</v>
+        <f t="shared" ref="P25:P27" si="9">P24</f>
+        <v>550</v>
       </c>
       <c r="Q25" t="s">
         <v>2</v>
       </c>
       <c r="R25">
-        <f>DesignLight!R24</f>
-        <v>350</v>
+        <f t="shared" si="1"/>
+        <v>340</v>
       </c>
       <c r="S25" t="s">
         <v>2</v>
@@ -2338,8 +2342,8 @@
         <v>26</v>
       </c>
       <c r="V25">
-        <f>param!$C$7</f>
-        <v>8</v>
+        <f>param!$C$8</f>
+        <v>7</v>
       </c>
       <c r="W25" t="s">
         <v>7</v>
@@ -2406,8 +2410,8 @@
         <v>2</v>
       </c>
       <c r="R26">
-        <f>DesignLight!R25</f>
-        <v>350</v>
+        <f t="shared" si="1"/>
+        <v>360</v>
       </c>
       <c r="S26" t="s">
         <v>2</v>
@@ -2419,8 +2423,8 @@
         <v>26</v>
       </c>
       <c r="V26">
-        <f>param!$C$7</f>
-        <v>8</v>
+        <f>param!$C$8</f>
+        <v>7</v>
       </c>
       <c r="W26" t="s">
         <v>7</v>
@@ -2480,15 +2484,15 @@
         <v>25</v>
       </c>
       <c r="P27">
-        <f>P26-param!$C$4</f>
-        <v>475</v>
+        <f t="shared" ref="P27" si="10">P26</f>
+        <v>485</v>
       </c>
       <c r="Q27" t="s">
         <v>2</v>
       </c>
       <c r="R27">
-        <f>DesignLight!R26</f>
-        <v>350</v>
+        <f t="shared" si="1"/>
+        <v>340</v>
       </c>
       <c r="S27" t="s">
         <v>2</v>
@@ -2500,8 +2504,8 @@
         <v>26</v>
       </c>
       <c r="V27">
-        <f>param!$C$7</f>
-        <v>8</v>
+        <f>param!$C$8</f>
+        <v>7</v>
       </c>
       <c r="W27" t="s">
         <v>7</v>
@@ -2610,7 +2614,7 @@
         <v>2</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N36" t="s">
         <v>2</v>
@@ -2626,8 +2630,8 @@
         <v>2</v>
       </c>
       <c r="R36">
-        <f>param!C3-param!C6</f>
-        <v>315</v>
+        <f>param!C3-param!C7</f>
+        <v>290</v>
       </c>
       <c r="S36" t="s">
         <v>2</v>
@@ -2639,8 +2643,8 @@
         <v>26</v>
       </c>
       <c r="V36">
-        <f>param!$C$7</f>
-        <v>8</v>
+        <f>param!$C$8</f>
+        <v>7</v>
       </c>
       <c r="W36" t="s">
         <v>7</v>
@@ -2692,7 +2696,7 @@
         <v>2</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N37" t="s">
         <v>2</v>
@@ -2709,7 +2713,7 @@
       </c>
       <c r="R37">
         <f>R36</f>
-        <v>315</v>
+        <v>290</v>
       </c>
       <c r="S37" t="s">
         <v>2</v>
@@ -2721,8 +2725,8 @@
         <v>26</v>
       </c>
       <c r="V37">
-        <f>param!$C$7</f>
-        <v>8</v>
+        <f>param!$C$8</f>
+        <v>7</v>
       </c>
       <c r="W37" t="s">
         <v>7</v>
@@ -2731,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="Y37">
-        <f t="shared" ref="Y37:Y47" si="1">G37+1</f>
+        <f t="shared" ref="Y37:Y47" si="11">G37+1</f>
         <v>76</v>
       </c>
     </row>
@@ -2755,7 +2759,7 @@
         <v>2</v>
       </c>
       <c r="G38">
-        <f t="shared" ref="G38:G47" si="2">G37+3</f>
+        <f t="shared" ref="G38:G47" si="12">G37+3</f>
         <v>78</v>
       </c>
       <c r="H38" t="s">
@@ -2774,7 +2778,7 @@
         <v>2</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N38" t="s">
         <v>2</v>
@@ -2783,15 +2787,15 @@
         <v>25</v>
       </c>
       <c r="P38">
-        <f>P36-param!$C$5*2</f>
+        <f>P36-2*param!$C$5</f>
         <v>1070</v>
       </c>
       <c r="Q38" t="s">
         <v>2</v>
       </c>
       <c r="R38">
-        <f t="shared" ref="R38:R47" si="3">R37</f>
-        <v>315</v>
+        <f t="shared" ref="R38:R47" si="13">R37</f>
+        <v>290</v>
       </c>
       <c r="S38" t="s">
         <v>2</v>
@@ -2803,8 +2807,8 @@
         <v>26</v>
       </c>
       <c r="V38">
-        <f>param!$C$7</f>
-        <v>8</v>
+        <f>param!$C$8</f>
+        <v>7</v>
       </c>
       <c r="W38" t="s">
         <v>7</v>
@@ -2813,7 +2817,7 @@
         <v>0</v>
       </c>
       <c r="Y38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>79</v>
       </c>
     </row>
@@ -2837,7 +2841,7 @@
         <v>2</v>
       </c>
       <c r="G39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>81</v>
       </c>
       <c r="H39" t="s">
@@ -2856,7 +2860,7 @@
         <v>2</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N39" t="s">
         <v>2</v>
@@ -2872,8 +2876,8 @@
         <v>2</v>
       </c>
       <c r="R39">
-        <f t="shared" si="3"/>
-        <v>315</v>
+        <f t="shared" si="13"/>
+        <v>290</v>
       </c>
       <c r="S39" t="s">
         <v>2</v>
@@ -2885,8 +2889,8 @@
         <v>26</v>
       </c>
       <c r="V39">
-        <f>param!$C$7</f>
-        <v>8</v>
+        <f>param!$C$8</f>
+        <v>7</v>
       </c>
       <c r="W39" t="s">
         <v>7</v>
@@ -2895,7 +2899,7 @@
         <v>0</v>
       </c>
       <c r="Y39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>82</v>
       </c>
     </row>
@@ -2919,7 +2923,7 @@
         <v>2</v>
       </c>
       <c r="G40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>84</v>
       </c>
       <c r="H40" t="s">
@@ -2938,7 +2942,7 @@
         <v>2</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N40" t="s">
         <v>2</v>
@@ -2947,15 +2951,15 @@
         <v>25</v>
       </c>
       <c r="P40">
-        <f>P38-param!$C$5*2</f>
+        <f>P38-2*param!$C$5</f>
         <v>940</v>
       </c>
       <c r="Q40" t="s">
         <v>2</v>
       </c>
       <c r="R40">
-        <f t="shared" si="3"/>
-        <v>315</v>
+        <f t="shared" si="13"/>
+        <v>290</v>
       </c>
       <c r="S40" t="s">
         <v>2</v>
@@ -2967,8 +2971,8 @@
         <v>26</v>
       </c>
       <c r="V40">
-        <f>param!$C$7</f>
-        <v>8</v>
+        <f>param!$C$8</f>
+        <v>7</v>
       </c>
       <c r="W40" t="s">
         <v>7</v>
@@ -2977,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="Y40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>85</v>
       </c>
     </row>
@@ -3001,7 +3005,7 @@
         <v>2</v>
       </c>
       <c r="G41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>87</v>
       </c>
       <c r="H41" t="s">
@@ -3020,7 +3024,7 @@
         <v>2</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N41" t="s">
         <v>2</v>
@@ -3036,8 +3040,8 @@
         <v>2</v>
       </c>
       <c r="R41">
-        <f t="shared" si="3"/>
-        <v>315</v>
+        <f t="shared" si="13"/>
+        <v>290</v>
       </c>
       <c r="S41" t="s">
         <v>2</v>
@@ -3049,8 +3053,8 @@
         <v>26</v>
       </c>
       <c r="V41">
-        <f>param!$C$7</f>
-        <v>8</v>
+        <f>param!$C$8</f>
+        <v>7</v>
       </c>
       <c r="W41" t="s">
         <v>7</v>
@@ -3059,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="Y41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>88</v>
       </c>
     </row>
@@ -3083,7 +3087,7 @@
         <v>2</v>
       </c>
       <c r="G42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>90</v>
       </c>
       <c r="H42" t="s">
@@ -3102,7 +3106,7 @@
         <v>2</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N42" t="s">
         <v>2</v>
@@ -3111,15 +3115,15 @@
         <v>25</v>
       </c>
       <c r="P42">
-        <f>P40-param!$C$5*2</f>
+        <f>P40-2*param!$C$5</f>
         <v>810</v>
       </c>
       <c r="Q42" t="s">
         <v>2</v>
       </c>
       <c r="R42">
-        <f t="shared" si="3"/>
-        <v>315</v>
+        <f t="shared" si="13"/>
+        <v>290</v>
       </c>
       <c r="S42" t="s">
         <v>2</v>
@@ -3131,8 +3135,8 @@
         <v>26</v>
       </c>
       <c r="V42">
-        <f>param!$C$7</f>
-        <v>8</v>
+        <f>param!$C$8</f>
+        <v>7</v>
       </c>
       <c r="W42" t="s">
         <v>7</v>
@@ -3141,7 +3145,7 @@
         <v>0</v>
       </c>
       <c r="Y42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>91</v>
       </c>
     </row>
@@ -3165,7 +3169,7 @@
         <v>2</v>
       </c>
       <c r="G43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>93</v>
       </c>
       <c r="H43" t="s">
@@ -3184,7 +3188,7 @@
         <v>2</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N43" t="s">
         <v>2</v>
@@ -3200,8 +3204,8 @@
         <v>2</v>
       </c>
       <c r="R43">
-        <f t="shared" si="3"/>
-        <v>315</v>
+        <f t="shared" si="13"/>
+        <v>290</v>
       </c>
       <c r="S43" t="s">
         <v>2</v>
@@ -3213,8 +3217,8 @@
         <v>26</v>
       </c>
       <c r="V43">
-        <f>param!$C$7</f>
-        <v>8</v>
+        <f>param!$C$8</f>
+        <v>7</v>
       </c>
       <c r="W43" t="s">
         <v>7</v>
@@ -3223,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="Y43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>94</v>
       </c>
     </row>
@@ -3247,7 +3251,7 @@
         <v>2</v>
       </c>
       <c r="G44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>96</v>
       </c>
       <c r="H44" t="s">
@@ -3266,7 +3270,7 @@
         <v>2</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N44" t="s">
         <v>2</v>
@@ -3275,15 +3279,15 @@
         <v>25</v>
       </c>
       <c r="P44">
-        <f>P42-param!$C$5*2</f>
+        <f>P42-2*param!$C$5</f>
         <v>680</v>
       </c>
       <c r="Q44" t="s">
         <v>2</v>
       </c>
       <c r="R44">
-        <f t="shared" si="3"/>
-        <v>315</v>
+        <f t="shared" si="13"/>
+        <v>290</v>
       </c>
       <c r="S44" t="s">
         <v>2</v>
@@ -3295,8 +3299,8 @@
         <v>26</v>
       </c>
       <c r="V44">
-        <f>param!$C$7</f>
-        <v>8</v>
+        <f>param!$C$8</f>
+        <v>7</v>
       </c>
       <c r="W44" t="s">
         <v>7</v>
@@ -3305,7 +3309,7 @@
         <v>0</v>
       </c>
       <c r="Y44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>97</v>
       </c>
     </row>
@@ -3329,7 +3333,7 @@
         <v>2</v>
       </c>
       <c r="G45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>99</v>
       </c>
       <c r="H45" t="s">
@@ -3348,7 +3352,7 @@
         <v>2</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N45" t="s">
         <v>2</v>
@@ -3364,8 +3368,8 @@
         <v>2</v>
       </c>
       <c r="R45">
-        <f t="shared" si="3"/>
-        <v>315</v>
+        <f t="shared" si="13"/>
+        <v>290</v>
       </c>
       <c r="S45" t="s">
         <v>2</v>
@@ -3377,8 +3381,8 @@
         <v>26</v>
       </c>
       <c r="V45">
-        <f>param!$C$7</f>
-        <v>8</v>
+        <f>param!$C$8</f>
+        <v>7</v>
       </c>
       <c r="W45" t="s">
         <v>7</v>
@@ -3387,7 +3391,7 @@
         <v>0</v>
       </c>
       <c r="Y45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
     </row>
@@ -3411,7 +3415,7 @@
         <v>2</v>
       </c>
       <c r="G46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>102</v>
       </c>
       <c r="H46" t="s">
@@ -3430,7 +3434,7 @@
         <v>2</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N46" t="s">
         <v>2</v>
@@ -3439,15 +3443,15 @@
         <v>25</v>
       </c>
       <c r="P46">
-        <f>P44-param!$C$5*2</f>
+        <f>P44-2*param!$C$5</f>
         <v>550</v>
       </c>
       <c r="Q46" t="s">
         <v>2</v>
       </c>
       <c r="R46">
-        <f t="shared" si="3"/>
-        <v>315</v>
+        <f t="shared" si="13"/>
+        <v>290</v>
       </c>
       <c r="S46" t="s">
         <v>2</v>
@@ -3459,8 +3463,8 @@
         <v>26</v>
       </c>
       <c r="V46">
-        <f>param!$C$7</f>
-        <v>8</v>
+        <f>param!$C$8</f>
+        <v>7</v>
       </c>
       <c r="W46" t="s">
         <v>7</v>
@@ -3469,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="Y46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>103</v>
       </c>
     </row>
@@ -3493,7 +3497,7 @@
         <v>2</v>
       </c>
       <c r="G47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>105</v>
       </c>
       <c r="H47" t="s">
@@ -3512,7 +3516,7 @@
         <v>2</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N47" t="s">
         <v>2</v>
@@ -3528,8 +3532,8 @@
         <v>2</v>
       </c>
       <c r="R47">
-        <f t="shared" si="3"/>
-        <v>315</v>
+        <f t="shared" si="13"/>
+        <v>290</v>
       </c>
       <c r="S47" t="s">
         <v>2</v>
@@ -3541,8 +3545,8 @@
         <v>26</v>
       </c>
       <c r="V47">
-        <f>param!$C$7</f>
-        <v>8</v>
+        <f>param!$C$8</f>
+        <v>7</v>
       </c>
       <c r="W47" t="s">
         <v>7</v>
@@ -3551,7 +3555,7 @@
         <v>0</v>
       </c>
       <c r="Y47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>106</v>
       </c>
     </row>
@@ -3573,7 +3577,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C7"/>
+  <dimension ref="B2:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
@@ -3594,7 +3598,7 @@
         <v>28</v>
       </c>
       <c r="C3">
-        <v>350</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
@@ -3618,15 +3622,23 @@
         <v>31</v>
       </c>
       <c r="C6">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>32</v>
       </c>
-      <c r="C7">
-        <v>8</v>
+      <c r="C8">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
